--- a/medicine/Mort/Église_de_l'Euthanasie/Église_de_l'Euthanasie.xlsx
+++ b/medicine/Mort/Église_de_l'Euthanasie/Église_de_l'Euthanasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89glise_de_l%27Euthanasie</t>
+          <t>Église_de_l'Euthanasie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Église de l'Euthanasie (en anglais : Church of Euthanasia) est un groupe religieux fondé par Chris Korda en 1992[1]. Il prône la réduction de la population humaine dans le but de préserver l'environnement[2]. Son unique commandement est « Tu ne procréeras point » (« Thou shalt not procreate ») et ses quatre « piliers » sont le suicide, l'avortement, le cannibalisme et la sodomie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Église de l'Euthanasie (en anglais : Church of Euthanasia) est un groupe religieux fondé par Chris Korda en 1992. Il prône la réduction de la population humaine dans le but de préserver l'environnement. Son unique commandement est « Tu ne procréeras point » (« Thou shalt not procreate ») et ses quatre « piliers » sont le suicide, l'avortement, le cannibalisme et la sodomie.
 </t>
         </is>
       </c>
